--- a/src/data/input/manual/temp_img_input.xlsx
+++ b/src/data/input/manual/temp_img_input.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="13368" yWindow="3444" windowWidth="18264" windowHeight="12156" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -18,18 +18,17 @@
   <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -41,27 +40,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -70,12 +54,10 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -441,11 +423,15 @@
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" activeCellId="1" sqref="A3:J5 B2:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="11.6640625" bestFit="1" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/src/data/input/manual/temp_img_input.xlsx
+++ b/src/data/input/manual/temp_img_input.xlsx
@@ -1,40 +1,139 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21F01C8D-2E35-4499-92B9-570744A94FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="13368" yWindow="3444" windowWidth="18264" windowHeight="12156" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="13368" yWindow="3444" windowWidth="18264" windowHeight="12156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>品名</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>公司</t>
+  </si>
+  <si>
+    <t>单名</t>
+  </si>
+  <si>
+    <t>斤</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>10. 56</t>
+  </si>
+  <si>
+    <t>尖椒</t>
+  </si>
+  <si>
+    <t>10. 6</t>
+  </si>
+  <si>
+    <t>鸡蛋24</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>3.62</t>
+  </si>
+  <si>
+    <t>50.68</t>
+  </si>
+  <si>
+    <t>干豆腐</t>
+  </si>
+  <si>
+    <t>丘</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>4.82</t>
+  </si>
+  <si>
+    <t>48.2</t>
+  </si>
+  <si>
+    <t>圆葱20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉亿格</t>
+  </si>
+  <si>
+    <t>食堂主食出库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主食</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -53,81 +152,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -415,23 +455,181 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" activeCellId="1" sqref="A3:J5 B2:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="11.6640625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>2.65</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/data/input/manual/temp_img_input.xlsx
+++ b/src/data/input/manual/temp_img_input.xlsx
@@ -1,139 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21F01C8D-2E35-4499-92B9-570744A94FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13368" yWindow="3444" windowWidth="18264" windowHeight="12156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>类别</t>
-  </si>
-  <si>
-    <t>品名</t>
-  </si>
-  <si>
-    <t>单位</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>单价</t>
-  </si>
-  <si>
-    <t>金额</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>公司</t>
-  </si>
-  <si>
-    <t>单名</t>
-  </si>
-  <si>
-    <t>斤</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>0.88</t>
-  </si>
-  <si>
-    <t>10. 56</t>
-  </si>
-  <si>
-    <t>尖椒</t>
-  </si>
-  <si>
-    <t>10. 6</t>
-  </si>
-  <si>
-    <t>鸡蛋24</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>3.62</t>
-  </si>
-  <si>
-    <t>50.68</t>
-  </si>
-  <si>
-    <t>干豆腐</t>
-  </si>
-  <si>
-    <t>丘</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>4.82</t>
-  </si>
-  <si>
-    <t>48.2</t>
-  </si>
-  <si>
-    <t>圆葱20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉亿格</t>
-  </si>
-  <si>
-    <t>食堂主食出库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主食</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -151,23 +52,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -455,181 +414,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" activeCellId="1" sqref="A3:J5 B2:J2"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col width="17.81640625" customWidth="1" min="4" max="4"/>
+    <col width="17.81640625" customWidth="1" min="13" max="13"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>45797</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>45797</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>2.65</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>45797</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>45797</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/data/input/manual/temp_img_input.xlsx
+++ b/src/data/input/manual/temp_img_input.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5412" yWindow="3276" windowWidth="30960" windowHeight="12204" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -52,8 +52,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -422,15 +423,17 @@
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="17.81640625" customWidth="1" min="4" max="4"/>
-    <col width="17.81640625" customWidth="1" min="13" max="13"/>
+    <col width="8.88671875" customWidth="1" style="1" min="1" max="1"/>
+    <col width="28.44140625" customWidth="1" min="3" max="3"/>
+    <col width="23.21875" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/src/data/input/manual/temp_img_input.xlsx
+++ b/src/data/input/manual/temp_img_input.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -18,18 +19,14 @@
   <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -48,15 +45,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -421,15 +427,11 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
-  <cols>
-    <col width="17.81640625" customWidth="1" min="4" max="4"/>
-    <col width="17.81640625" customWidth="1" min="13" max="13"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/data/input/manual/temp_img_input.xlsx
+++ b/src/data/input/manual/temp_img_input.xlsx
@@ -425,14 +425,571 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>类别</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>单位</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>单价</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>金额</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>备注</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>公司</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>单名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>油麦菜1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>桶</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>24.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>49.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>老抽2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>桶</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>18.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>36.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>辣椒粉10</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>袋</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>57.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>桶</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>44.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>捞汁2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>郫县豆瓣酱7</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>袋</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>21.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>十三香10</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>盒</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>66.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>粉丝10</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>袋</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>57.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>芝麻6</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>袋</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>18.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>孜然10</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>袋</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2 73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>27.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>57.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>挂面25</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>袋</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>辣椒粉10</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>袋</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>28.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>粉丝10</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>袋</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>10.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>54.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>香琪酱20</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>袋</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>32.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>扶贫木耳</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>斤</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>61.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>123.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>麻辣鲜</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>袋</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>26.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>25.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>火锅底料</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>方便面 (104g)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>袋</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>23.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>料酒14</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>车 机招餐</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>49.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>糖三角</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>宏程餐饮</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>管</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>